--- a/documentação/backlog.xlsx
+++ b/documentação/backlog.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaue_f_lima\Downloads\F1novo\backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthur_rosa2\Desktop\Prog\F1 novo\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,23 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Lista de tarefas</t>
   </si>
   <si>
-    <t>Identificar as configurações minimas do hardware/memoria - Requisitos não funcionais</t>
-  </si>
-  <si>
-    <t>Identificar as configurações minimas do hardware/vídeo - Requisitos não funcionais</t>
-  </si>
-  <si>
-    <t>Identificar as configurações minimas do sistema operacional - Requisitos não funcionais</t>
-  </si>
-  <si>
-    <t>Identificar as configurações de desempenho do jogo- Atualização - Requisitos não funcionais</t>
-  </si>
-  <si>
     <t>Identificar os requisitos funcionais - funções principais dos jogo</t>
   </si>
   <si>
@@ -90,9 +79,6 @@
     <t>identificar as regras de negócio do sistema(requisito funcional) - número de fases</t>
   </si>
   <si>
-    <t>Identificar as configurações minimas do hardware/processador - Requisitos não funcionais</t>
-  </si>
-  <si>
     <t>Mamedes</t>
   </si>
   <si>
@@ -132,20 +118,137 @@
     <t xml:space="preserve"> x64-based PC</t>
   </si>
   <si>
-    <t>Identificar as configurações minimas do hardware/placa mãe - Requisitos não funcionais</t>
-  </si>
-  <si>
     <t>OptiPlex 3070</t>
   </si>
   <si>
     <t>Dell Inc.</t>
+  </si>
+  <si>
+    <t>9.386 MB</t>
+  </si>
+  <si>
+    <t>9 GB</t>
+  </si>
+  <si>
+    <t>verificar do fluxo de trabalho do sistema</t>
+  </si>
+  <si>
+    <t>Identificar as configurações minimas do hardware/processador - Requisitos não funcionais(Systeminfo CMD)</t>
+  </si>
+  <si>
+    <t>Identificar as configurações minimas do hardware/memoria - Requisitos não (Systeminfo CMD)</t>
+  </si>
+  <si>
+    <t>Identificar as configurações minimas do hardware/vídeo - Requisitos não funcionais(Systeminfo CMD)</t>
+  </si>
+  <si>
+    <t>Identificar as configurações minimas do hardware/placa mãe - Requisitos não funcionais(Systeminfo CMD)</t>
+  </si>
+  <si>
+    <t>Identificar as configurações minimas do sistema operacional - Requisitos não funcionais(Systeminfo CMD)</t>
+  </si>
+  <si>
+    <t>Identificar as configurações de desempenho do jogo- Atualização - Requisitos não funcionais(Systeminfo CMD)</t>
+  </si>
+  <si>
+    <t>1280 x 720 Recomendado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W=1280px </t>
+  </si>
+  <si>
+    <t>H=720px</t>
+  </si>
+  <si>
+    <t>setInterval() &gt;= 10ms</t>
+  </si>
+  <si>
+    <t>requestAnimationFrame() &lt;=1ms</t>
+  </si>
+  <si>
+    <t>Identificar as configurações minimas do hardware/memoria - Requisitos não funcionais(Systeminfo CMD)</t>
+  </si>
+  <si>
+    <t>Obj, Car, Inimigo, Estrada, Texto</t>
+  </si>
+  <si>
+    <t>Audio (API do Dom)</t>
+  </si>
+  <si>
+    <t>Image (API do Dom)</t>
+  </si>
+  <si>
+    <t>Backlog - UML</t>
+  </si>
+  <si>
+    <t>Classe Obj</t>
+  </si>
+  <si>
+    <t>Classe Obj - des_img()</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>des_car()</t>
+  </si>
+  <si>
+    <t>atual_car()</t>
+  </si>
+  <si>
+    <t>point()</t>
+  </si>
+  <si>
+    <t>colid()</t>
+  </si>
+  <si>
+    <t>recomeca()</t>
+  </si>
+  <si>
+    <t>des_est()</t>
+  </si>
+  <si>
+    <t>des_text()</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Inimigo</t>
+  </si>
+  <si>
+    <t>Backlog - Principal</t>
+  </si>
+  <si>
+    <t>Imagens</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Inicialização do projeto</t>
+  </si>
+  <si>
+    <t>index.html(front)</t>
+  </si>
+  <si>
+    <t>style.css(front)</t>
+  </si>
+  <si>
+    <t>f1_main.js</t>
+  </si>
+  <si>
+    <t>fi_class.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,22 +257,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -177,14 +318,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,175 +674,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -660,153 +948,535 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="104.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>21</v>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>